--- a/java/com.sap.sailing.barbados.resultimport.test/resources/RESULTS2.xlsx
+++ b/java/com.sap.sailing.barbados.resultimport.test/resources/RESULTS2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7485" tabRatio="778" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17085" windowHeight="4305" tabRatio="778" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS FOR USE" sheetId="33" r:id="rId1"/>
@@ -35,11 +35,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'RACE-9'!$A$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:T9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="245">
   <si>
     <t>GER</t>
   </si>
@@ -719,9 +720,6 @@
     <t>RACE 9</t>
   </si>
   <si>
-    <t>RACE SCORE</t>
-  </si>
-  <si>
     <t>SAP 5O5 WORLD CHAMPIONSHIP, BARBADOS, 2013</t>
   </si>
   <si>
@@ -1250,12 +1248,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1263,6 +1255,12 @@
     </xf>
     <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1601,23 +1599,23 @@
   <sheetData>
     <row r="2" spans="1:9" s="35" customFormat="1">
       <c r="A2" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="35" customFormat="1"/>
     <row r="4" spans="1:9" s="35" customFormat="1">
       <c r="A4" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="35" customFormat="1">
       <c r="A5" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -1629,19 +1627,19 @@
       <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1">
       <c r="A9" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -1657,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
@@ -1671,38 +1669,38 @@
       <c r="A11" s="50">
         <v>2</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="B11" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="50">
         <v>3</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="B12" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9" s="51" customFormat="1" ht="47.25" customHeight="1">
       <c r="A13" s="50">
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="70"/>
@@ -1717,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="70"/>
       <c r="D14" s="70"/>
@@ -1731,54 +1729,54 @@
       <c r="A15" s="50">
         <v>6</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="B15" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="A17" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="75">
+      <c r="A20" s="73">
         <v>41371</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1789,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4960,7 +4958,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
@@ -4979,7 +4977,7 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
@@ -4989,7 +4987,7 @@
     <row r="2" spans="2:6">
       <c r="B2" s="40"/>
       <c r="C2" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
@@ -4997,7 +4995,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -5010,7 +5008,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
       <c r="F4" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="55" customFormat="1" ht="51">
@@ -5019,13 +5017,13 @@
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>244</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="14.25">
@@ -7869,9 +7867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7938,7 +7936,7 @@
         <v>225</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="P1" s="48" t="s">
         <v>10</v>
@@ -15856,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:O97" si="18">SUM(F66:N66)</f>
+        <f t="shared" ref="O66:O78" si="18">SUM(F66:N66)</f>
         <v>0</v>
       </c>
       <c r="P66" s="4">
